--- a/xlsx_format/底稿制作.xlsx
+++ b/xlsx_format/底稿制作.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\doc_processing\xlsx_format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DDD9DB-CB54-48D2-AF91-F63BC8F44BE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D16A8A7-4469-4FF3-B618-5BF6B85B8F8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11385" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="第一部分 第二章 业务与技术调查" sheetId="1" r:id="rId1"/>
-    <sheet name="第一部分 第三章 同业竞争与关联交易调查" sheetId="2" r:id="rId2"/>
+    <sheet name="第一部分" sheetId="1" r:id="rId1"/>
+    <sheet name="第二部分" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -8636,7 +8636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H1441"/>
   <sheetViews>
-    <sheetView topLeftCell="A1414" workbookViewId="0">
+    <sheetView topLeftCell="A1015" workbookViewId="0">
       <selection activeCell="E1426" sqref="E1426"/>
     </sheetView>
   </sheetViews>
@@ -19603,7 +19603,7 @@
   <dimension ref="A3:B181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+      <selection activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
